--- a/tests/spip_ancien_light.xlsx
+++ b/tests/spip_ancien_light.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoar\Mon Drive\Work\Femis\Referentiels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hhoar\PycharmProjects\OpenAlumni\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EE30BE-44EF-4135-AC48-C70E61ACFF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2235ED-2D92-428D-B97B-A313ACE6448E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{093718FA-C8AD-4840-A64D-F47394945BA1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="96">
   <si>
     <t>civilite</t>
   </si>
@@ -309,6 +309,18 @@
   </si>
   <si>
     <t>mikefromentin@gmail.com</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Ozon</t>
+  </si>
+  <si>
+    <t>Cinéaste</t>
+  </si>
+  <si>
+    <t>info@filmtalents.com</t>
   </si>
 </sst>
 </file>
@@ -670,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C26EA7-871F-4AD0-A51C-B3E9732EC16C}">
-  <dimension ref="A1:AI9"/>
+  <dimension ref="A1:AI10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1227,6 +1239,50 @@
         <v>45</v>
       </c>
     </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10">
+        <v>1994</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>95</v>
+      </c>
+      <c r="U10" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
